--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Blue-Retro-Single-Console-Units\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1AC22F-7A73-4284-A88C-45E1B780F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Status:</t>
   </si>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,14 +538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +564,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44683</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -610,7 +611,9 @@
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
@@ -628,7 +631,9 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
@@ -698,7 +703,9 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
@@ -706,7 +713,9 @@
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
@@ -730,7 +739,9 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>

--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Blue-Retro-Single-Console-Units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1AC22F-7A73-4284-A88C-45E1B780F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9CF1E6-10EA-489D-B040-F8AAB93E251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Status:</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="2">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -585,7 +585,9 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
